--- a/docss/trend/spain/E_aminoacid.xlsx
+++ b/docss/trend/spain/E_aminoacid.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16425" windowHeight="12195" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12135" windowHeight="10965" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Ej4_Alteraciones_Comarcas" sheetId="1" r:id="rId1"/>
     <sheet name="Tasa_anual_Ej4_Alteraciones" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -12812,7 +12812,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="B1" sqref="B1:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12836,13 +12836,13 @@
         <v>1999</v>
       </c>
       <c r="B2">
-        <v>4.6041489312977697E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="C2">
-        <v>6.2295759586213501E-2</v>
+        <v>6.2E-2</v>
       </c>
       <c r="D2">
-        <v>2.9143402540819E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -12850,13 +12850,13 @@
         <v>2000</v>
       </c>
       <c r="B3">
-        <v>3.9021761030714801E-2</v>
+        <v>3.9E-2</v>
       </c>
       <c r="C3">
-        <v>4.4613602722861301E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="D3">
-        <v>3.3083718398280199E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -12864,13 +12864,13 @@
         <v>2001</v>
       </c>
       <c r="B4">
-        <v>5.8497225960143999E-2</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="C4">
-        <v>8.5779545452323205E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="D4">
-        <v>2.9354566153943499E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -12878,13 +12878,13 @@
         <v>2002</v>
       </c>
       <c r="B5">
-        <v>3.5680618056260403E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="C5">
-        <v>5.1373734246290201E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="D5">
-        <v>1.9099754779551201E-2</v>
+        <v>1.9E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -12892,13 +12892,13 @@
         <v>2003</v>
       </c>
       <c r="B6">
-        <v>5.8485873805744798E-2</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="C6">
-        <v>3.5447402319633302E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="D6">
-        <v>8.1828904514419806E-2</v>
+        <v>8.2000000000000003E-2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -12906,13 +12906,13 @@
         <v>2004</v>
       </c>
       <c r="B7">
-        <v>7.46484798388799E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="C7">
-        <v>8.5051344102784407E-2</v>
+        <v>8.5000000000000006E-2</v>
       </c>
       <c r="D7">
-        <v>6.4834628473666694E-2</v>
+        <v>6.5000000000000002E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -12920,13 +12920,13 @@
         <v>2005</v>
       </c>
       <c r="B8">
-        <v>4.78034073263457E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="C8">
-        <v>6.6764604029520294E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="D8">
-        <v>2.7351119429060999E-2</v>
+        <v>2.7E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -12934,13 +12934,13 @@
         <v>2006</v>
       </c>
       <c r="B9">
-        <v>5.7694787475851203E-2</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="C9">
-        <v>8.7982673070596304E-2</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="D9">
-        <v>2.5522592006163101E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -12948,13 +12948,13 @@
         <v>2007</v>
       </c>
       <c r="B10">
-        <v>7.5051119221952095E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="C10">
-        <v>9.6960193130327194E-2</v>
+        <v>9.7000000000000003E-2</v>
       </c>
       <c r="D10">
-        <v>5.2888418107287602E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -12962,13 +12962,13 @@
         <v>2008</v>
       </c>
       <c r="B11">
-        <v>5.9389562519062501E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="C11">
-        <v>6.7259219052326402E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="D11">
-        <v>5.0612611435265902E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -12976,13 +12976,13 @@
         <v>2009</v>
       </c>
       <c r="B12">
-        <v>5.0622848269823197E-2</v>
+        <v>5.0999999999999997E-2</v>
       </c>
       <c r="C12">
-        <v>6.0448109368927999E-2</v>
+        <v>0.06</v>
       </c>
       <c r="D12">
-        <v>4.0427261963642498E-2</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -12990,13 +12990,13 @@
         <v>2010</v>
       </c>
       <c r="B13">
-        <v>5.6881775950900798E-2</v>
+        <v>5.7000000000000002E-2</v>
       </c>
       <c r="C13">
-        <v>8.1390465379004698E-2</v>
+        <v>8.1000000000000003E-2</v>
       </c>
       <c r="D13">
-        <v>3.2625298503208999E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -13004,13 +13004,13 @@
         <v>2011</v>
       </c>
       <c r="B14">
-        <v>5.6472343479861999E-2</v>
+        <v>5.6000000000000001E-2</v>
       </c>
       <c r="C14">
-        <v>8.3869198706956694E-2</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="D14">
-        <v>2.6553210642755402E-2</v>
+        <v>2.7E-2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -13018,13 +13018,13 @@
         <v>2012</v>
       </c>
       <c r="B15">
-        <v>4.86945741150294E-2</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="C15">
-        <v>7.5353792376766204E-2</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="D15">
-        <v>2.0969920922087801E-2</v>
+        <v>2.1000000000000001E-2</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -13032,13 +13032,13 @@
         <v>2013</v>
       </c>
       <c r="B16">
-        <v>3.9410849774396801E-2</v>
+        <v>3.9E-2</v>
       </c>
       <c r="C16">
-        <v>4.5085340071423098E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="D16">
-        <v>3.327344278035E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
     </row>
   </sheetData>
